--- a/medicine/Autisme/Daryl_Hannah/Daryl_Hannah.xlsx
+++ b/medicine/Autisme/Daryl_Hannah/Daryl_Hannah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daryl Hannah est une actrice américaine, née le 3 décembre 1960 à Chicago en Illinois. Elle est surtout connue pour son rôle de Madison, la sirène de Splash (1984), ainsi que celui de Pris dans Blade Runner (1982).
 Après ses débuts à l'écran en 1978, elle a joué dans de nombreux films à Hollywood dans les années 1980 et a, dans les années 2000, incarné des rôles remarqués, notamment celui de Elle Driver dans le diptyque Kill Bill : Volume 1 / Volume 2 de Quentin Tarantino, après une parenthèse dans les années 1990.
@@ -515,25 +527,135 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jeunesse
-Daryl Christine Hannah est la fille de Donald Hannah, le propriétaire d'une compagnie de remorqueurs et de barges[1] et de Susan, productrice. Ses parents divorcent peu après sa naissance et sa mère se remarie avec Jerrold Wexler, un homme d'affaires, frère du cinéaste Haskell Wexler.
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daryl Christine Hannah est la fille de Donald Hannah, le propriétaire d'une compagnie de remorqueurs et de barges et de Susan, productrice. Ses parents divorcent peu après sa naissance et sa mère se remarie avec Jerrold Wexler, un homme d'affaires, frère du cinéaste Haskell Wexler.
 Végétarienne depuis l'âge de sept ans, elle grandit avec un sentiment de rivalité envers son frère, Don, et sa sœur, Page Hannah, ainsi qu'envers sa demi-sœur Tanya Wexler[réf. nécessaire]. Elle fréquente l'école Francis Parker (en) et le Chicago Latin School à Chicago jusqu'à la terminale quand elle déménage à Parker. Enfant, elle perd le bout de son index gauche dans un accident (dans ses films, elle porte souvent une prothèse au niveau de l'empreinte digitale).
-Carrière
-Elle fait ses débuts au cinéma en 1978 dans le film Furie de Brian De Palma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait ses débuts au cinéma en 1978 dans le film Furie de Brian De Palma.
 La décennie suivante fait d'elle un sex-symbol. En 1982, elle perce avec le rôle d'un des réplicants du film Blade Runner de Ridley Scott puis enchaîne en 1984 grâce son rôle de sirène dans le film de Ron Howard, Splash, qui connaît un grand succès commercial et la hisse au rang de vedette. Suivront d'autres nombreux succès, tels que Le Pape de Greenwich Village avec Mickey Rourke, L'Affaire Chelsea Deardon dont elle partage l'affiche avec Robert Redford et Debra Winger, Roxanne aux côtés de Steve Martin et High Spirits. S'ajoute le film culte Wall Street d'Oliver Stone avec Michael Douglas et Charlie Sheen, et enfin Potins de femmes qui met aussi en vedette Sally Field, Dolly Parton, Olympia Dukakis, Shirley MacLaine et la toute jeune Julia Roberts.
 Durant les années 90, Daryl Hannah reste très présente avec des films comme En liberté dans les champs du seigneur, Les Aventures d'un homme invisible, Les Grincheux, Les Cent et Une Nuits de Simon Cinéma, Les Liens du sang, Two Much, Une vraie blonde et The Gingerbread Man.
 Pourtant très active dans le cinéma, les films dans lesquels elle se produit depuis 2000 sont restés très confidentiels à l'exception notable de sa participation marquante au diptyque Kill Bill : Volume 1 / Volume 2 de Quentin Tarantino. Elle retrouve d'ailleurs son collègue de Kill Bill, Michael Madsen, dans le téléfilm Skin Traffik d'Ara Paiaya sorti en 2015.
 Elle fait une apparition en 2002 dans le clip Feel de Robbie Williams.
-Vie privée
-Elle a eu une liaison avec le chanteur Jackson Browne ainsi qu'avec l'acteur Val Kilmer et John Fitzgerald Kennedy, Jr. de 1989 à 1994[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a eu une liaison avec le chanteur Jackson Browne ainsi qu'avec l'acteur Val Kilmer et John Fitzgerald Kennedy, Jr. de 1989 à 1994[réf. nécessaire].
 En couple depuis 2014 avec le musicien Neil Young (de quinze ans son aîné), elle se marie avec ce dernier le 25 août 2018.
 Elle confie en 2015 avoir été harcelée à l'école à cause de sa grande taille (1,79m), de son autisme et de ses cheveux blonds virant au blanc.
-Engagements
-Hannah a une sensibilité écologiste : elle a son propre blog vidéo nommé DH Love Life, sur les solutions de développement durable. Elle est souvent filmée ou enregistrée comme invitée à l'écran de son blog. Sa maison possède des réflecteurs solaires et est construite avec des matériaux écologiques ; sa voiture utilise du biodiesel comme carburant. À la fin de 2006, elle est volontaire pour être juge au Treehugger.com's, un débat sur le film d'Al Gore Une vérité qui dérange[réf. nécessaire].
-Pour contrer la chasse à la baleine menée par des navires baleiniers japonais, elle participe à la Sea Shepherd Conservation Society. Le navire, le Steve Irwin, est parti fin novembre 2008, de la Marina Rivergate de Brisbane en Australie[2]. Il mène souvent des actions très violentes qualifiées d'éco-terrorisme par le gouvernement du Japon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Engagements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hannah a une sensibilité écologiste : elle a son propre blog vidéo nommé DH Love Life, sur les solutions de développement durable. Elle est souvent filmée ou enregistrée comme invitée à l'écran de son blog. Sa maison possède des réflecteurs solaires et est construite avec des matériaux écologiques ; sa voiture utilise du biodiesel comme carburant. À la fin de 2006, elle est volontaire pour être juge au Treehugger.com's, un débat sur le film d'Al Gore Une vérité qui dérange[réf. nécessaire].
+Pour contrer la chasse à la baleine menée par des navires baleiniers japonais, elle participe à la Sea Shepherd Conservation Society. Le navire, le Steve Irwin, est parti fin novembre 2008, de la Marina Rivergate de Brisbane en Australie. Il mène souvent des actions très violentes qualifiées d'éco-terrorisme par le gouvernement du Japon.
 En octobre 2012, alors qu'elle participe à une manifestation contre l'installation d'un pipeline au Texas, elle est arrêtée pour « intrusion criminelle sur une propriété privée »[réf. nécessaire].
-Enchaînée aux grilles de la Maison-Blanche pour demander à Barack Obama de renoncer au projet d'oléoduc géant Keystone XL, Daryl Hannah figure aussi parmi la cinquantaine de manifestants arrêtés par la police le 13 février 2013 à Washington[3].
-Lors de la campagne pour l'élection présidentielle américaine de 2016, elle soutient Bernie Sanders[4].
+Enchaînée aux grilles de la Maison-Blanche pour demander à Barack Obama de renoncer au projet d'oléoduc géant Keystone XL, Daryl Hannah figure aussi parmi la cinquantaine de manifestants arrêtés par la police le 13 février 2013 à Washington.
+Lors de la campagne pour l'élection présidentielle américaine de 2016, elle soutient Bernie Sanders.
 Distinctions
 Environmental Media Awards 2004 : prix de l'engagement
 National Biodiesel Board 2004 : personnalité influente de l'année
@@ -542,35 +664,43 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Daryl_Hannah</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cinéma
-Années 1970-1980
-1978 : Furie (The Fury) de Brian De Palma : Pam
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Années 1970-1980</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1978 : Furie (The Fury) de Brian De Palma : Pam
 1981 : Hard Country de David Greene : Loretta
 1982 : Blade Runner de Ridley Scott : Pris
 1982 : Amours de vacances (Summer Lovers) de Randal Kleiser : Cathy Featherstone
@@ -583,9 +713,47 @@
 1987 : Roxanne de Fred Schepisi : Roxanne Kowalski
 1987 : Wall Street de Oliver Stone : Darien Taylor
 1988 : High Spirits de Neil Jordan : Mary Plunkett Brogan
-1989 : Potins de femmes (Steel Magnolias) de Herbert Ross : Annelle Dupuy Desoto
-Années 1990
-1990 : Crimes et Délits (Crimes and Misdemeanors) de Woody Allen : Lisa Crosley (non créditée)
+1989 : Potins de femmes (Steel Magnolias) de Herbert Ross : Annelle Dupuy Desoto</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1990 : Crimes et Délits (Crimes and Misdemeanors) de Woody Allen : Lisa Crosley (non créditée)
 1990 : Les Fous de la pub (Crazy People) de Tony Bill : Kathy Burgess
 1991 : En liberté dans les champs du seigneur (At Play in the Fields of the Lord) de Héctor Babenco : Andy Huben
 1992 : Les Aventures d'un homme invisible (Memoirs of an Invisible Man) de John Carpenter : Alice Monroe
@@ -603,9 +771,47 @@
 1999 : Speedway Junky de Nickolas Perry : Veronica
 1999 : Mon Martien bien-aimé (My Favorite Martian) de Donald Petrie : Lizzie
 1999 : Wildflowers (en) de Melissa Painter : Sabine
-1999 : Otages en péril (Diplomatic Siege) de Gustavo Graef-Marino : Erika Long
-Années 2000
-2000 : Jeu mortel (Cord) de David Worth : Anne White
+1999 : Otages en péril (Diplomatic Siege) de Gustavo Graef-Marino : Erika Long</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2000 : Jeu mortel (Cord) de David Worth : Anne White
 2001 : Dancing at the Blue Iguana de Michael Radford : Angel
 2001 : Cowboy Up de Xavier Koller : Celia Jones
 2001 : Jackpot (en) des Frères Polish : Bobbi
@@ -629,19 +835,94 @@
 2008 : Vice de Raul Inglis : Salt
 2008 : The Garden (documentaire) de Scott Hamilton Kennedy
 2008 : Blood Bride : Les Noces de sang (Dark Honeymoon) de David O'Malley : Jan
-2009 : L'Antre du mal (The Devil's Ground) de Michael Bafaro : Carrie
-Années 2010
-2010 : A Closed Book de Raoul Ruiz : Jane Ryder
+2009 : L'Antre du mal (The Devil's Ground) de Michael Bafaro : Carrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2010 : A Closed Book de Raoul Ruiz : Jane Ryder
 2012 : Eldorado (en) de Richard Driscoll : l'étrangère
 2013 : The Hot Flashes de Susan Seidelman : Ginger
 2014 : Skin Traffik de Ara Paiaya : Zhanna
 2015 : I Am Michael de Justin Kelly : Deborah
 2015 : 2047 : The Final War d'Alessandro Capone : Major Anderson
 Comme réalisatrice
-2018 : Paradox
-Télévision
-Téléfilms
-1982 : Paper Dolls : Taryn Blake
+2018 : Paradox</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1982 : Paper Dolls : Taryn Blake
 1993 : L'Attaque de la femme de 50 pieds (Attack of the 50 Ft. Woman) : Nancy Archer
 1998 : Rescuers: Stories of Courage: Two Families : Maria Althoff
 1998 : Fenêtre sur cour (Rear Window) : Claudia Henderson
@@ -654,76 +935,117 @@
 2008 : Chasseuse de tempêtes (Storm Seekers) : Leah Kaplan
 2013 : Le Profil de la honte (Social Nightmare) : Susan Hardy
 2013 : Zombie Night (en) : Birdie
-2015 : Skin Traffik : Zhanna
-Séries télévisées
-1997 : Gun : Jill Johnson
+2015 : Skin Traffik : Zhanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1997 : Gun : Jill Johnson
 1997 : Le Dernier Parrain (The Last Don) : Athena Aquitane
 2002 : Frasier
 2015 - 2018 : Sense8 : Angelica</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Daryl_Hannah</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Voix françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En France, Martine Irzenski est la voix française de Daryl Hannah. Micky Sébastian et Maïk Darah l'ont également doublée à trois reprises.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, Martine Irzenski est la voix française de Daryl Hannah. Micky Sébastian et Maïk Darah l'ont également doublée à trois reprises.
 Au Québec, Hélène Mondoux est la voix québécoise habituelle de l'actrice.
-En France
-Au Québec</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Daryl_Hannah</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daryl_Hannah</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Saturn Awards 1984 : Meilleure actrice pour Splash
-Razzie Awards 1987 : Pire actrice dans un second rôle pour Wall Street[5]
+Razzie Awards 1987 : Pire actrice dans un second rôle pour Wall Street
 Berlinale 1994 : Meilleur court-métrage
 Saturn Awards 2004 : Meilleur second rôle féminin Kill Bill Vol 2
 MTV Movie Awards 2005 : Meilleur combat pour Kill Bill Vol 2</t>
